--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delfina\Dropbox\PC\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C6E5C6-9A46-473B-B894-601C0271CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D51D77-8F7E-4CD5-922A-1FE5EEA70AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4710" windowWidth="29040" windowHeight="15840" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TP4" sheetId="1" r:id="rId1"/>
+    <sheet name="INFO A PRESENTAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -898,8 +899,834 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nicolás</author>
+  </authors>
+  <commentList>
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{14A623DE-AA6A-4810-A8BA-505C4F2A1D02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Evento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{8611BDC6-0C23-4D29-8186-8DB6ED399A5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiempo del sistema en minutos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{274D2D70-D0B0-44FC-BAD5-877B80918800}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Número aleatorio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{80D4F2C6-0D42-40C8-B95C-1ECA9CD7EB96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Generador exponencial negativo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{21105620-85A7-40CB-AE9F-4D2D24FAC9CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de llegada de próximo auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{9DCADF3E-3A95-4A36-AFA9-924A467F1ECB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de fin de quitado de alfombra actual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{BA629ABC-74DE-4ADC-B4EE-98FFB7C7976D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Número aleatorio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{93174C39-8CAC-41C9-9D55-7184AC7736DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Generador uniforme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{61CE9B5C-863F-4B2D-8B36-C65362F2BC67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de fin de aspirado de alfombra actual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{40C75ADC-88A9-40B7-886C-99FE7F813B61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Número aleatorio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K44" authorId="0" shapeId="0" xr:uid="{EAF829FC-A1BA-4C72-ACB4-81A6F5D99FB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Número aleatorio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{C8706BF1-B018-4931-8E38-FA71BC030E2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Generador normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M44" authorId="0" shapeId="0" xr:uid="{C5272CAC-641F-4CE8-A730-CAAD00A6663F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora fin de lavado y secado de auto en lugar 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N44" authorId="0" shapeId="0" xr:uid="{C1F615B7-E290-4677-A0A0-4333DFC1EB01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora fin de lavado y secado de auto en lugar 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{2E83C382-028D-4F59-AA57-77823E087A57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de fin de colocado de alfombra actual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P44" authorId="0" shapeId="0" xr:uid="{1E5F0C05-F50D-480A-9D35-F417F0A4978D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del operario del área Quitar Alfombra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q44" authorId="0" shapeId="0" xr:uid="{E3262C61-A916-418F-B945-0BB30D3A5A14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cantidad de autos en la cola para quitar alfombra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R44" authorId="0" shapeId="0" xr:uid="{3C5305C2-889E-47BB-A9A9-EC4739C4C682}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del área de aspirado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S44" authorId="0" shapeId="0" xr:uid="{02D51979-B063-421F-B53B-90C897CBDA75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cantidad de alfombras en la cola de aspirado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T44" authorId="0" shapeId="0" xr:uid="{5AFCDB75-8F4C-4B6E-B838-0E9DE23EC952}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del área de lavado y secado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U44" authorId="0" shapeId="0" xr:uid="{56E613CE-D232-4242-A37D-5512BC121E4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cantidad de autos sin alfombra en la cola del área de Lavado y Secado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V44" authorId="0" shapeId="0" xr:uid="{5EC51263-A7A5-4D13-AB4D-27FACFF5BA05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del operario del área Poner Alfombra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W44" authorId="0" shapeId="0" xr:uid="{A3570EB2-24FA-484D-958A-EFBF2655EEEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cantidad de autos y sus respectivas alfombras en la cola para colocar alfombras</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X44" authorId="0" shapeId="0" xr:uid="{88BF24D1-F684-462F-95A5-483FC5080B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Acumulador de autos que entraron al sistema. Se usa para calcular el tiempo promedio en cola de LS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y44" authorId="0" shapeId="0" xr:uid="{CBC63327-5A1A-4406-A778-E320FFF7922C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiempo promedio de espera en la cola de LS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z44" authorId="0" shapeId="0" xr:uid="{EEBDE6FE-CCA0-434D-B30B-58B4BED38B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cantidad de autos sin alfombra promedio en la cola de LS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA44" authorId="0" shapeId="0" xr:uid="{58CB8D03-665D-432F-879A-65896E936BA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del auto i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB44" authorId="0" shapeId="0" xr:uid="{18850E07-CD98-4649-85CD-FFDC96A1A72A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de entrada a la cola para QA del auto i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK44" authorId="0" shapeId="0" xr:uid="{7E852A02-8D36-4727-8853-1FE5A23D81DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado de la alfombra i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL44" authorId="0" shapeId="0" xr:uid="{0DA00C6E-D5A7-4CF8-9181-A7AB31C6E841}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de entrada a la cola X de la alfombra i. Esta columna puede usarse tanto para la cola de PA como la de AA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS44" authorId="0" shapeId="0" xr:uid="{90431D90-4F60-4E14-8E5A-75F62B69883C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado del auto sin alfombra i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT44" authorId="0" shapeId="0" xr:uid="{90FFB616-BB95-4CAF-B62B-CFD41960CE76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de entrada a la cola LS del auto sin alfombra i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU44" authorId="0" shapeId="0" xr:uid="{6B3F464B-9B08-41F5-99EA-2AE278E31296}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiempo en la cola LS del auto sin alfombra i</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV44" authorId="0" shapeId="0" xr:uid="{62965A06-94BF-43A3-820C-BE09E16F652D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicolás:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hora de entrada a la cola PA del auto sin alfombra i</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1010,6 +1837,230 @@
   </si>
   <si>
     <t>Segundos</t>
+  </si>
+  <si>
+    <t>OBJETIVO DEL EJERCICIO</t>
+  </si>
+  <si>
+    <t>QUÉ DATO PIDE EL EJERCICIO?</t>
+  </si>
+  <si>
+    <t>Tipo Distribución</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Caja Park i</t>
+  </si>
+  <si>
+    <t>Control Comida</t>
+  </si>
+  <si>
+    <t>Caja Entrada</t>
+  </si>
+  <si>
+    <t>OBJETOS</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>ESTADOS</t>
+  </si>
+  <si>
+    <t>El tiempo en el que se tarda un cliente en alcanzar el interior del parque</t>
+  </si>
+  <si>
+    <t>Simular el parque Beto Carrero World</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>ControlComida(P)</t>
+  </si>
+  <si>
+    <t>CajaEntrada(P)</t>
+  </si>
+  <si>
+    <t>(EnColaEntrada, SiendoAtendido)</t>
+  </si>
+  <si>
+    <t>(EnColaParking, SiendoAtendido)</t>
+  </si>
+  <si>
+    <t>(EnColaComida, SiendoAtendido)</t>
+  </si>
+  <si>
+    <t>(Libre, Ocupado)</t>
+  </si>
+  <si>
+    <t>EVENTOS</t>
+  </si>
+  <si>
+    <t>TIPO DISTRIBUCIÓN</t>
+  </si>
+  <si>
+    <t>LlegadaAuto</t>
+  </si>
+  <si>
+    <t>FinCajaPark</t>
+  </si>
+  <si>
+    <t>FinCajaEntrada</t>
+  </si>
+  <si>
+    <t>FinControlComida</t>
+  </si>
+  <si>
+    <t>Constantes</t>
+  </si>
+  <si>
+    <t>PARÁMETROS (Segundos)</t>
+  </si>
+  <si>
+    <t>COLAS</t>
+  </si>
+  <si>
+    <t>EN QUÉ SERVIDOR</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>CajaPark i</t>
+  </si>
+  <si>
+    <t>CajaEntrada i</t>
+  </si>
+  <si>
+    <t>ControlComida i</t>
+  </si>
+  <si>
+    <t>MÉTRICA</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>CÓMO CALCULAN?</t>
+  </si>
+  <si>
+    <t>(EnColaComidaMayores,SiendoAtendido)</t>
+  </si>
+  <si>
+    <t>PersonaMayor(T)</t>
+  </si>
+  <si>
+    <t>ControlComidaMayores(P)</t>
+  </si>
+  <si>
+    <t>ColaComidaMayores</t>
+  </si>
+  <si>
+    <t>ControlComidaMayores</t>
+  </si>
+  <si>
+    <t>Metros</t>
+  </si>
+  <si>
+    <t>Tiempo en conseguir entrada</t>
+  </si>
+  <si>
+    <t>Promedio de metros necesarios para aparcamiento</t>
+  </si>
+  <si>
+    <t>Cantidad de gente en cola</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Tiempo de entrada despues de estacionar</t>
+  </si>
+  <si>
+    <r>
+      <t>Se agregaron los siguientes 2 objetos: -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PersonaMayor (T) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>como cliente, y hace referencia a aquellos objetos que tienen una cola propia donde son atendidos apenas llegan, sin importar la cola de controlComida. -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ControlColaComidaMayores (P)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> como servidor, y hace referencia al servidor que se encarga de atender a los objetos PersonaMayor.</t>
+    </r>
+  </si>
+  <si>
+    <t>Contando la suma de los metros de cada auto dividido la cantidad total de autos.</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Sumamos 5 minutos + [(92*60) (minutos en cola entrada)* Cantidad de personas en colaEntrada]</t>
+  </si>
+  <si>
+    <t>Acumulador de cada simulacion</t>
+  </si>
+  <si>
+    <t>VECTOR ESTADO</t>
+  </si>
+  <si>
+    <t>PromedioMetros</t>
+  </si>
+  <si>
+    <t>TiempoEntrada</t>
+  </si>
+  <si>
+    <t>TiempoEntradaDespEstacionar</t>
+  </si>
+  <si>
+    <t>DÓNDE CALCULA?</t>
+  </si>
+  <si>
+    <t>Contador colaEntrada</t>
+  </si>
+  <si>
+    <t>colaEntrada</t>
+  </si>
+  <si>
+    <t>ACUMULADOR</t>
   </si>
 </sst>
 </file>
@@ -1180,18 +2231,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,21 +2289,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,34 +2307,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1623,500 +2682,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50179044-1614-4E95-9ADB-A6EE77150653}">
   <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31">
         <v>1</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="31">
         <v>2</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="29">
+      <c r="O2" s="30"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="44">
         <v>1</v>
       </c>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="44">
         <v>2</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="29">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44">
         <v>3</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="29">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="44">
         <v>4</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="29">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="44">
         <v>5</v>
       </c>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="27">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="42">
         <v>1</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="27">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="42">
         <v>2</v>
       </c>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27">
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="42">
         <v>3</v>
       </c>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="42">
         <v>4</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="25">
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="25">
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="41">
         <v>2</v>
       </c>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="25">
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="41">
         <v>3</v>
       </c>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-    </row>
-    <row r="3" spans="1:58" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+    </row>
+    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="16" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16" t="s">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="16" t="s">
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16" t="s">
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="16" t="s">
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="14" t="s">
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="14" t="s">
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="14" t="s">
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="12" t="s">
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="12" t="s">
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="12" t="s">
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AP8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AP8" s="4"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AL15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AL15" s="4"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="BB16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="BB16" s="4"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="R21" s="5" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="R21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="X21" s="4" t="s">
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="X21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2141,12 +3202,15 @@
       </c>
       <c r="N22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="U22" s="3" t="s">
+      <c r="T22" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="X22" s="2" t="s">
-        <v>16</v>
+      <c r="V22" s="49"/>
+      <c r="Y22" s="51" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2192,7 +3256,10 @@
         <v>8</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
@@ -2216,7 +3283,10 @@
         <v>4</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
@@ -2235,7 +3305,12 @@
       <c r="U25">
         <v>92</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2378,16 +3453,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="R21:V21"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="R21:V21"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AC1:AL1"/>
@@ -2398,6 +3472,7 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
@@ -2409,4 +3484,705 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
+  <dimension ref="A1:BD44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="E1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="E2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="45"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="43"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43"/>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="43"/>
+      <c r="AR42" s="43"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="31">
+        <v>1</v>
+      </c>
+      <c r="N43" s="31">
+        <v>2</v>
+      </c>
+      <c r="O43" s="30"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="44">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="44">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="44">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="45"/>
+      <c r="AK43" s="42">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="42">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="42">
+        <v>3</v>
+      </c>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="42">
+        <v>4</v>
+      </c>
+      <c r="AR43" s="43"/>
+      <c r="AS43" s="41">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="41">
+        <v>2</v>
+      </c>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
+      <c r="AZ43" s="37"/>
+      <c r="BA43" s="41">
+        <v>3</v>
+      </c>
+      <c r="BB43" s="37"/>
+      <c r="BC43" s="37"/>
+      <c r="BD43" s="37"/>
+    </row>
+    <row r="44" spans="1:56" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+      <c r="AV44" s="9"/>
+      <c r="AW44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="9"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB44" s="9"/>
+      <c r="BC44" s="9"/>
+      <c r="BD44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AA42:AJ42"/>
+    <mergeCell ref="AK42:AR42"/>
+    <mergeCell ref="AS42:BD42"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AQ43:AR43"/>
+    <mergeCell ref="AS43:AV43"/>
+    <mergeCell ref="AW43:AZ43"/>
+    <mergeCell ref="BA43:BD43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="D6:G13"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delfina\Dropbox\PC\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D51D77-8F7E-4CD5-922A-1FE5EEA70AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246351BD-9D2E-4166-9D8C-D3E203A66766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TP4" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1914,9 +1914,6 @@
     <t>FinControlComida</t>
   </si>
   <si>
-    <t>Constantes</t>
-  </si>
-  <si>
     <t>PARÁMETROS (Segundos)</t>
   </si>
   <si>
@@ -1969,9 +1966,6 @@
   </si>
   <si>
     <t>Promedio de metros necesarios para aparcamiento</t>
-  </si>
-  <si>
-    <t>Cantidad de gente en cola</t>
   </si>
   <si>
     <t>Unidad</t>
@@ -2036,9 +2030,6 @@
     <t>Sumamos 5 minutos + [(92*60) (minutos en cola entrada)* Cantidad de personas en colaEntrada]</t>
   </si>
   <si>
-    <t>Acumulador de cada simulacion</t>
-  </si>
-  <si>
     <t>VECTOR ESTADO</t>
   </si>
   <si>
@@ -2051,16 +2042,37 @@
     <t>TiempoEntradaDespEstacionar</t>
   </si>
   <si>
-    <t>DÓNDE CALCULA?</t>
-  </si>
-  <si>
     <t>Contador colaEntrada</t>
   </si>
   <si>
-    <t>colaEntrada</t>
-  </si>
-  <si>
     <t>ACUMULADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contador autos </t>
+  </si>
+  <si>
+    <t>Cantidad promedio de gente en cola</t>
+  </si>
+  <si>
+    <t>Sumatoria de (Cantidad de personas en cola por el tiempo en que hay esa cantidad de personas en cola), dividido el reloj de la simulación</t>
+  </si>
+  <si>
+    <t>Contador tiempo</t>
+  </si>
+  <si>
+    <t>Exponencial negativa</t>
+  </si>
+  <si>
+    <t>Media 29</t>
+  </si>
+  <si>
+    <t>Media 92</t>
+  </si>
+  <si>
+    <t>Media 5</t>
+  </si>
+  <si>
+    <t>Constante</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2311,25 +2323,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,26 +2339,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,72 +2698,72 @@
       <selection pane="bottomLeft" sqref="A1:BF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>36</v>
       </c>
@@ -2786,62 +2797,62 @@
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
-      <c r="AC2" s="44">
+      <c r="AC2" s="39">
         <v>1</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="44">
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39">
         <v>2</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="44">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="39">
         <v>3</v>
       </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="44">
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="39">
         <v>4</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="44">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="39">
         <v>5</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="42">
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="37">
         <v>1</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="42">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="37">
         <v>2</v>
       </c>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="42">
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="37">
         <v>3</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="42">
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="37">
         <v>4</v>
       </c>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="41">
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="45">
         <v>1</v>
       </c>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="41">
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="45">
         <v>2</v>
       </c>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="41">
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="45">
         <v>3</v>
       </c>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-    </row>
-    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+    </row>
+    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2971,7 +2982,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2981,7 +2992,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2992,7 +3003,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3003,7 +3014,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3015,7 +3026,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3035,7 +3046,7 @@
       <c r="AB8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3051,7 +3062,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3064,7 +3075,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3074,7 +3085,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -3087,7 +3098,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3100,7 +3111,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -3112,7 +3123,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3123,7 +3134,7 @@
       <c r="AB15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3135,7 +3146,7 @@
       <c r="AP16" s="4"/>
       <c r="BB16" s="4"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="F17" s="5"/>
       <c r="I17" s="4"/>
@@ -3145,43 +3156,43 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="I18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="R21" s="48" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="R21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
       <c r="X21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.67</v>
       </c>
@@ -3202,18 +3213,18 @@
       </c>
       <c r="N22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="T22" s="51" t="s">
+      <c r="T22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="49" t="s">
+      <c r="U22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="49"/>
-      <c r="Y22" s="51" t="s">
+      <c r="V22" s="36"/>
+      <c r="Y22" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.23</v>
       </c>
@@ -3262,7 +3273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.89</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.45</v>
       </c>
@@ -3312,7 +3323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.02</v>
       </c>
@@ -3323,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.76</v>
       </c>
@@ -3331,128 +3342,147 @@
       <c r="R27" s="2"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.61</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.93</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.83</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.97</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
@@ -3460,25 +3490,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3490,61 +3501,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="85.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="98.7265625" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" customWidth="1"/>
+    <col min="26" max="26" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
@@ -3554,15 +3565,14 @@
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="53"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3572,13 +3582,12 @@
       <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3588,13 +3597,12 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3604,29 +3612,27 @@
       <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3636,13 +3642,12 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3652,13 +3657,12 @@
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="53"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3668,15 +3672,14 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -3684,13 +3687,8 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>56</v>
       </c>
@@ -3698,238 +3696,243 @@
         <v>57</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="31"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="45"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43"/>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
-      <c r="AS42" s="37"/>
-      <c r="AT42" s="37"/>
-      <c r="AU42" s="37"/>
-      <c r="AV42" s="37"/>
-      <c r="AW42" s="37"/>
-      <c r="AX42" s="37"/>
-      <c r="AY42" s="37"/>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="37"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B43" s="34" t="s">
         <v>36</v>
       </c>
@@ -3961,62 +3964,62 @@
       <c r="X43" s="24"/>
       <c r="Y43" s="24"/>
       <c r="Z43" s="23"/>
-      <c r="AA43" s="44">
+      <c r="AA43" s="39">
         <v>1</v>
       </c>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="44">
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="39">
         <v>2</v>
       </c>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="44">
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="39">
         <v>3</v>
       </c>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="44">
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="39">
         <v>4</v>
       </c>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="44">
+      <c r="AH43" s="40"/>
+      <c r="AI43" s="39">
         <v>5</v>
       </c>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="42">
+      <c r="AJ43" s="40"/>
+      <c r="AK43" s="37">
         <v>1</v>
       </c>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="42">
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="37">
         <v>2</v>
       </c>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="42">
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="37">
         <v>3</v>
       </c>
-      <c r="AP43" s="43"/>
-      <c r="AQ43" s="42">
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="37">
         <v>4</v>
       </c>
-      <c r="AR43" s="43"/>
-      <c r="AS43" s="41">
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="45">
         <v>1</v>
       </c>
-      <c r="AT43" s="37"/>
-      <c r="AU43" s="37"/>
-      <c r="AV43" s="37"/>
-      <c r="AW43" s="41">
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="45">
         <v>2</v>
       </c>
-      <c r="AX43" s="37"/>
-      <c r="AY43" s="37"/>
-      <c r="AZ43" s="37"/>
-      <c r="BA43" s="41">
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="45">
         <v>3</v>
       </c>
-      <c r="BB43" s="37"/>
-      <c r="BC43" s="37"/>
-      <c r="BD43" s="37"/>
-    </row>
-    <row r="44" spans="1:56" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="44"/>
+      <c r="BD43" s="44"/>
+    </row>
+    <row r="44" spans="1:56" ht="26" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>35</v>
       </c>
@@ -4087,13 +4090,13 @@
         <v>25</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA44" s="14" t="s">
         <v>24</v>
@@ -4152,6 +4155,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="D6:G13"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Z42"/>
     <mergeCell ref="AA42:AJ42"/>
     <mergeCell ref="AK42:AR42"/>
     <mergeCell ref="AS42:BD42"/>
@@ -4167,19 +4183,6 @@
     <mergeCell ref="AS43:AV43"/>
     <mergeCell ref="AW43:AZ43"/>
     <mergeCell ref="BA43:BD43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="D6:G13"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delfina\Dropbox\PC\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246351BD-9D2E-4166-9D8C-D3E203A66766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DA519-865C-43A8-8963-A57F1239370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TP4" sheetId="1" r:id="rId1"/>
@@ -953,319 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{274D2D70-D0B0-44FC-BAD5-877B80918800}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Número aleatorio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{80D4F2C6-0D42-40C8-B95C-1ECA9CD7EB96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Generador exponencial negativo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{21105620-85A7-40CB-AE9F-4D2D24FAC9CB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de llegada de próximo auto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{9DCADF3E-3A95-4A36-AFA9-924A467F1ECB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de fin de quitado de alfombra actual</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{BA629ABC-74DE-4ADC-B4EE-98FFB7C7976D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Número aleatorio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{93174C39-8CAC-41C9-9D55-7184AC7736DE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Generador uniforme</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{61CE9B5C-863F-4B2D-8B36-C65362F2BC67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de fin de aspirado de alfombra actual</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{40C75ADC-88A9-40B7-886C-99FE7F813B61}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Número aleatorio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K44" authorId="0" shapeId="0" xr:uid="{EAF829FC-A1BA-4C72-ACB4-81A6F5D99FB0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Número aleatorio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{C8706BF1-B018-4931-8E38-FA71BC030E2A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Generador normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M44" authorId="0" shapeId="0" xr:uid="{C5272CAC-641F-4CE8-A730-CAAD00A6663F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora fin de lavado y secado de auto en lugar 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N44" authorId="0" shapeId="0" xr:uid="{C1F615B7-E290-4677-A0A0-4333DFC1EB01}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora fin de lavado y secado de auto en lugar 2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{2E83C382-028D-4F59-AA57-77823E087A57}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de fin de colocado de alfombra actual</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P44" authorId="0" shapeId="0" xr:uid="{1E5F0C05-F50D-480A-9D35-F417F0A4978D}">
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{1E5F0C05-F50D-480A-9D35-F417F0A4978D}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q44" authorId="0" shapeId="0" xr:uid="{E3262C61-A916-418F-B945-0BB30D3A5A14}">
+    <comment ref="P44" authorId="0" shapeId="0" xr:uid="{E3262C61-A916-418F-B945-0BB30D3A5A14}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R44" authorId="0" shapeId="0" xr:uid="{3C5305C2-889E-47BB-A9A9-EC4739C4C682}">
+    <comment ref="Q44" authorId="0" shapeId="0" xr:uid="{3C5305C2-889E-47BB-A9A9-EC4739C4C682}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S44" authorId="0" shapeId="0" xr:uid="{02D51979-B063-421F-B53B-90C897CBDA75}">
+    <comment ref="R44" authorId="0" shapeId="0" xr:uid="{02D51979-B063-421F-B53B-90C897CBDA75}">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T44" authorId="0" shapeId="0" xr:uid="{5AFCDB75-8F4C-4B6E-B838-0E9DE23EC952}">
+    <comment ref="S44" authorId="0" shapeId="0" xr:uid="{5AFCDB75-8F4C-4B6E-B838-0E9DE23EC952}">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U44" authorId="0" shapeId="0" xr:uid="{56E613CE-D232-4242-A37D-5512BC121E4C}">
+    <comment ref="T44" authorId="0" shapeId="0" xr:uid="{56E613CE-D232-4242-A37D-5512BC121E4C}">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V44" authorId="0" shapeId="0" xr:uid="{5EC51263-A7A5-4D13-AB4D-27FACFF5BA05}">
+    <comment ref="U44" authorId="0" shapeId="0" xr:uid="{5EC51263-A7A5-4D13-AB4D-27FACFF5BA05}">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W44" authorId="0" shapeId="0" xr:uid="{A3570EB2-24FA-484D-958A-EFBF2655EEEC}">
+    <comment ref="V44" authorId="0" shapeId="0" xr:uid="{A3570EB2-24FA-484D-958A-EFBF2655EEEC}">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X44" authorId="0" shapeId="0" xr:uid="{88BF24D1-F684-462F-95A5-483FC5080B3C}">
+    <comment ref="Z44" authorId="0" shapeId="0" xr:uid="{88BF24D1-F684-462F-95A5-483FC5080B3C}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y44" authorId="0" shapeId="0" xr:uid="{CBC63327-5A1A-4406-A778-E320FFF7922C}">
+    <comment ref="AA44" authorId="0" shapeId="0" xr:uid="{CBC63327-5A1A-4406-A778-E320FFF7922C}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z44" authorId="0" shapeId="0" xr:uid="{EEBDE6FE-CCA0-434D-B30B-58B4BED38B3C}">
+    <comment ref="AC44" authorId="0" shapeId="0" xr:uid="{EEBDE6FE-CCA0-434D-B30B-58B4BED38B3C}">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA44" authorId="0" shapeId="0" xr:uid="{58CB8D03-665D-432F-879A-65896E936BA0}">
+    <comment ref="AD44" authorId="0" shapeId="0" xr:uid="{58CB8D03-665D-432F-879A-65896E936BA0}">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB44" authorId="0" shapeId="0" xr:uid="{18850E07-CD98-4649-85CD-FFDC96A1A72A}">
+    <comment ref="AE44" authorId="0" shapeId="0" xr:uid="{18850E07-CD98-4649-85CD-FFDC96A1A72A}">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK44" authorId="0" shapeId="0" xr:uid="{7E852A02-8D36-4727-8853-1FE5A23D81DA}">
+    <comment ref="AN44" authorId="0" shapeId="0" xr:uid="{7E852A02-8D36-4727-8853-1FE5A23D81DA}">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL44" authorId="0" shapeId="0" xr:uid="{0DA00C6E-D5A7-4CF8-9181-A7AB31C6E841}">
+    <comment ref="AO44" authorId="0" shapeId="0" xr:uid="{0DA00C6E-D5A7-4CF8-9181-A7AB31C6E841}">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS44" authorId="0" shapeId="0" xr:uid="{90431D90-4F60-4E14-8E5A-75F62B69883C}">
+    <comment ref="AV44" authorId="0" shapeId="0" xr:uid="{90431D90-4F60-4E14-8E5A-75F62B69883C}">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT44" authorId="0" shapeId="0" xr:uid="{90FFB616-BB95-4CAF-B62B-CFD41960CE76}">
+    <comment ref="AW44" authorId="0" shapeId="0" xr:uid="{90FFB616-BB95-4CAF-B62B-CFD41960CE76}">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU44" authorId="0" shapeId="0" xr:uid="{6B3F464B-9B08-41F5-99EA-2AE278E31296}">
+    <comment ref="AX44" authorId="0" shapeId="0" xr:uid="{6B3F464B-9B08-41F5-99EA-2AE278E31296}">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV44" authorId="0" shapeId="0" xr:uid="{62965A06-94BF-43A3-820C-BE09E16F652D}">
+    <comment ref="AY44" authorId="0" shapeId="0" xr:uid="{62965A06-94BF-43A3-820C-BE09E16F652D}">
       <text>
         <r>
           <rPr>
@@ -1726,7 +1414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1876,12 +1564,6 @@
   </si>
   <si>
     <t>Cliente</t>
-  </si>
-  <si>
-    <t>ControlComida(P)</t>
-  </si>
-  <si>
-    <t>CajaEntrada(P)</t>
   </si>
   <si>
     <t>(EnColaEntrada, SiendoAtendido)</t>
@@ -2042,24 +1724,9 @@
     <t>TiempoEntradaDespEstacionar</t>
   </si>
   <si>
-    <t>Contador colaEntrada</t>
-  </si>
-  <si>
-    <t>ACUMULADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contador autos </t>
-  </si>
-  <si>
-    <t>Cantidad promedio de gente en cola</t>
-  </si>
-  <si>
     <t>Sumatoria de (Cantidad de personas en cola por el tiempo en que hay esa cantidad de personas en cola), dividido el reloj de la simulación</t>
   </si>
   <si>
-    <t>Contador tiempo</t>
-  </si>
-  <si>
     <t>Exponencial negativa</t>
   </si>
   <si>
@@ -2073,6 +1740,108 @@
   </si>
   <si>
     <t>Constante</t>
+  </si>
+  <si>
+    <t>CantidadPromedioGenteEnCola</t>
+  </si>
+  <si>
+    <t>COMO LO CALCULA?</t>
+  </si>
+  <si>
+    <t>PORQUE LO CALCULA</t>
+  </si>
+  <si>
+    <t>En cada experimento de la simulación</t>
+  </si>
+  <si>
+    <t>DÓNDE LO CALCULA ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque necesitamos buscar el dato de cuantas personas en promedio hay en cola, por lo tanto se toma este acumulador para poder calcularlo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se suma uno una vez que haya sucedido el evento de la llegada cliente </t>
+  </si>
+  <si>
+    <t>AcumuladorColaEntrada</t>
+  </si>
+  <si>
+    <t>Cantidad promedio de gente en ColaEntrada</t>
+  </si>
+  <si>
+    <t>AcumuladorTiempo</t>
+  </si>
+  <si>
+    <t>Se suma el tiempo anterior de espera en cola al tiempo actual de espera en cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque necesitamos buscar el dato de cuanto tiempo hubo una cierta cantidad de personas en cola, por lo tanto se toma este acumulador para poder calcularlo </t>
+  </si>
+  <si>
+    <t>AcumuladorTiempo A CHEQUEAAAAAR</t>
+  </si>
+  <si>
+    <t>ACUMULADORES Y CONTADORES</t>
+  </si>
+  <si>
+    <t>ContadorAutos</t>
+  </si>
+  <si>
+    <t>Por cada auto que llega se suma 1 al contador</t>
+  </si>
+  <si>
+    <t>Porque necesitamos buscar el promedio de metros necesarios para aparcamiento y para ello necesitamos la cantidad total de datos.</t>
+  </si>
+  <si>
+    <t>A CHEQUEAAR</t>
+  </si>
+  <si>
+    <t>HoraFinCajaPark</t>
+  </si>
+  <si>
+    <t>RNDFinCajaPark</t>
+  </si>
+  <si>
+    <t>TiempoFinCajaPark</t>
+  </si>
+  <si>
+    <t>HoraFinCajaEntrada</t>
+  </si>
+  <si>
+    <t>TiempoFinCajaEntrada</t>
+  </si>
+  <si>
+    <t>HoraFinControlComida</t>
+  </si>
+  <si>
+    <t>RNDFinControlComida</t>
+  </si>
+  <si>
+    <t>RNDFinCajaEntrada</t>
+  </si>
+  <si>
+    <t>TiempoFinControlComida</t>
+  </si>
+  <si>
+    <t>RNDProxLlegadaAuto</t>
+  </si>
+  <si>
+    <t>TiempoLlegadaAuto</t>
+  </si>
+  <si>
+    <t>HoraProxLlegadaAuto</t>
+  </si>
+  <si>
+    <t>Servidor                       CajaPark(i)</t>
+  </si>
+  <si>
+    <t>Servidor        CajaEntrada(i)</t>
+  </si>
+  <si>
+    <t>Servidor       ControlComida (i)</t>
+  </si>
+  <si>
+    <t>Servidor        ContorlComidaMayores(i)</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +1901,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2199,6 +1968,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2243,7 +2036,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2324,56 +2117,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2693,26 +2531,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50179044-1614-4E95-9ADB-A6EE77150653}">
   <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:BF3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="48"/>
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
@@ -2732,38 +2570,38 @@
       <c r="Z1" s="43"/>
       <c r="AA1" s="43"/>
       <c r="AB1" s="43"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
         <v>36</v>
       </c>
@@ -2797,62 +2635,62 @@
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
-      <c r="AC2" s="39">
+      <c r="AC2" s="45">
         <v>1</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="39">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45">
         <v>2</v>
       </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="39">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45">
         <v>3</v>
       </c>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="39">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45">
         <v>4</v>
       </c>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="39">
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="45">
         <v>5</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="37">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="40">
         <v>1</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="37">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="40">
         <v>2</v>
       </c>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="37">
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="40">
         <v>3</v>
       </c>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="37">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="40">
         <v>4</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="45">
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="39">
         <v>1</v>
       </c>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="45">
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="39">
         <v>2</v>
       </c>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="45">
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="39">
         <v>3</v>
       </c>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-    </row>
-    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+    </row>
+    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2820,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2992,7 +2830,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3003,7 +2841,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3014,7 +2852,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3026,7 +2864,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3046,7 +2884,7 @@
       <c r="AB8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3062,7 +2900,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3075,7 +2913,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3085,7 +2923,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -3098,7 +2936,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3111,7 +2949,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -3123,7 +2961,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3134,7 +2972,7 @@
       <c r="AB15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3146,7 +2984,7 @@
       <c r="AP16" s="4"/>
       <c r="BB16" s="4"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="F17" s="5"/>
       <c r="I17" s="4"/>
@@ -3156,12 +2994,12 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="I18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="21" spans="1:38" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.67</v>
       </c>
@@ -3216,15 +3054,15 @@
       <c r="T22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="36"/>
+      <c r="V22" s="51"/>
       <c r="Y22" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.23</v>
       </c>
@@ -3273,7 +3111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.89</v>
       </c>
@@ -3300,7 +3138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.45</v>
       </c>
@@ -3323,7 +3161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.02</v>
       </c>
@@ -3334,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.76</v>
       </c>
@@ -3342,135 +3180,135 @@
       <c r="R27" s="2"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.61</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.93</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.83</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.97</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="V1:W1"/>
@@ -3483,13 +3321,13 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3499,23 +3337,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="M32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42:Y44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="98.7265625" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" customWidth="1"/>
-    <col min="26" max="26" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="121.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
@@ -3527,35 +3369,35 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
@@ -3565,14 +3407,14 @@
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3580,14 +3422,14 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3595,14 +3437,14 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3610,29 +3452,29 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3640,549 +3482,618 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C28" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B32" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="23"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
+    </row>
+    <row r="42" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="O42" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="R42" s="64"/>
+      <c r="S42" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T42" s="65"/>
+      <c r="U42" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="V42" s="66"/>
+      <c r="W42" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="X42" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y42" s="67" t="s">
+        <v>101</v>
+      </c>
       <c r="Z42" s="43"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="38"/>
-      <c r="AS42" s="44"/>
-      <c r="AT42" s="44"/>
-      <c r="AU42" s="44"/>
-      <c r="AV42" s="44"/>
-      <c r="AW42" s="44"/>
-      <c r="AX42" s="44"/>
-      <c r="AY42" s="44"/>
-      <c r="AZ42" s="44"/>
-      <c r="BA42" s="44"/>
-      <c r="BB42" s="44"/>
-      <c r="BC42" s="44"/>
-      <c r="BD42" s="44"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="31">
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="45">
         <v>1</v>
       </c>
-      <c r="N43" s="31">
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="45">
         <v>2</v>
       </c>
-      <c r="O43" s="30"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="39">
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="45">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="45">
+        <v>4</v>
+      </c>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="45">
+        <v>5</v>
+      </c>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="40">
         <v>1</v>
       </c>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="39">
+      <c r="AO43" s="37"/>
+      <c r="AP43" s="40">
         <v>2</v>
       </c>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="39">
+      <c r="AQ43" s="37"/>
+      <c r="AR43" s="40">
         <v>3</v>
       </c>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="39">
+      <c r="AS43" s="37"/>
+      <c r="AT43" s="40">
         <v>4</v>
       </c>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="39">
-        <v>5</v>
-      </c>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="37">
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="39">
         <v>1</v>
       </c>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="37">
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="39">
         <v>2</v>
       </c>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="37">
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="39">
         <v>3</v>
       </c>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="37">
-        <v>4</v>
-      </c>
-      <c r="AR43" s="38"/>
-      <c r="AS43" s="45">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="44"/>
-      <c r="AU43" s="44"/>
-      <c r="AV43" s="44"/>
-      <c r="AW43" s="45">
-        <v>2</v>
-      </c>
-      <c r="AX43" s="44"/>
-      <c r="AY43" s="44"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="45">
-        <v>3</v>
-      </c>
-      <c r="BB43" s="44"/>
-      <c r="BC43" s="44"/>
-      <c r="BD43" s="44"/>
-    </row>
-    <row r="44" spans="1:56" ht="26" x14ac:dyDescent="0.35">
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+    </row>
+    <row r="44" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>26</v>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="P44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="19" t="s">
+      <c r="R44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="S44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="18" t="s">
+      <c r="T44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="T44" s="17" t="s">
+      <c r="U44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="17" t="s">
+      <c r="V44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V44" s="16" t="s">
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y44" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z44" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA44" s="14" t="s">
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="14" t="s">
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="14" t="s">
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="14" t="s">
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="14" t="s">
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="12" t="s">
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="12" t="s">
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="12" t="s">
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AP44" s="11"/>
-      <c r="AQ44" s="12" t="s">
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AR44" s="11"/>
-      <c r="AS44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT44" s="9"/>
-      <c r="AU44" s="9"/>
-      <c r="AV44" s="9"/>
-      <c r="AW44" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="AW44" s="9"/>
       <c r="AX44" s="9"/>
       <c r="AY44" s="9"/>
-      <c r="AZ44" s="9"/>
-      <c r="BA44" s="10" t="s">
+      <c r="AZ44" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
       <c r="BC44" s="9"/>
-      <c r="BD44" s="9"/>
+      <c r="BD44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE44" s="9"/>
+      <c r="BF44" s="9"/>
+      <c r="BG44" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="40">
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="BD43:BG43"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="O42:P43"/>
+    <mergeCell ref="Q42:R43"/>
+    <mergeCell ref="S42:T43"/>
+    <mergeCell ref="AN43:AO43"/>
+    <mergeCell ref="AP43:AQ43"/>
+    <mergeCell ref="AR43:AS43"/>
+    <mergeCell ref="AT43:AU43"/>
+    <mergeCell ref="AV43:AY43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AL43:AM43"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="AD42:AM42"/>
+    <mergeCell ref="AN42:AU42"/>
+    <mergeCell ref="AV42:BG42"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="W42:W44"/>
+    <mergeCell ref="X42:X44"/>
+    <mergeCell ref="Y42:Y44"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G4"/>
     <mergeCell ref="D6:G13"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AJ42"/>
-    <mergeCell ref="AK42:AR42"/>
-    <mergeCell ref="AS42:BD42"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AQ43:AR43"/>
-    <mergeCell ref="AS43:AV43"/>
-    <mergeCell ref="AW43:AZ43"/>
-    <mergeCell ref="BA43:BD43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delfina\Dropbox\PC\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DA519-865C-43A8-8963-A57F1239370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E5900-24B1-49C8-BFC5-1C25C4978F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TP4" sheetId="1" r:id="rId1"/>
@@ -899,522 +899,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Nicolás</author>
-  </authors>
-  <commentList>
-    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{14A623DE-AA6A-4810-A8BA-505C4F2A1D02}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Nombre del Evento</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{8611BDC6-0C23-4D29-8186-8DB6ED399A5F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tiempo del sistema en minutos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{1E5F0C05-F50D-480A-9D35-F417F0A4978D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del operario del área Quitar Alfombra</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P44" authorId="0" shapeId="0" xr:uid="{E3262C61-A916-418F-B945-0BB30D3A5A14}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cantidad de autos en la cola para quitar alfombra</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q44" authorId="0" shapeId="0" xr:uid="{3C5305C2-889E-47BB-A9A9-EC4739C4C682}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del área de aspirado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R44" authorId="0" shapeId="0" xr:uid="{02D51979-B063-421F-B53B-90C897CBDA75}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cantidad de alfombras en la cola de aspirado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S44" authorId="0" shapeId="0" xr:uid="{5AFCDB75-8F4C-4B6E-B838-0E9DE23EC952}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del área de lavado y secado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T44" authorId="0" shapeId="0" xr:uid="{56E613CE-D232-4242-A37D-5512BC121E4C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cantidad de autos sin alfombra en la cola del área de Lavado y Secado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U44" authorId="0" shapeId="0" xr:uid="{5EC51263-A7A5-4D13-AB4D-27FACFF5BA05}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del operario del área Poner Alfombra</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V44" authorId="0" shapeId="0" xr:uid="{A3570EB2-24FA-484D-958A-EFBF2655EEEC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cantidad de autos y sus respectivas alfombras en la cola para colocar alfombras</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z44" authorId="0" shapeId="0" xr:uid="{88BF24D1-F684-462F-95A5-483FC5080B3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Acumulador de autos que entraron al sistema. Se usa para calcular el tiempo promedio en cola de LS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA44" authorId="0" shapeId="0" xr:uid="{CBC63327-5A1A-4406-A778-E320FFF7922C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tiempo promedio de espera en la cola de LS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC44" authorId="0" shapeId="0" xr:uid="{EEBDE6FE-CCA0-434D-B30B-58B4BED38B3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cantidad de autos sin alfombra promedio en la cola de LS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD44" authorId="0" shapeId="0" xr:uid="{58CB8D03-665D-432F-879A-65896E936BA0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del auto i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE44" authorId="0" shapeId="0" xr:uid="{18850E07-CD98-4649-85CD-FFDC96A1A72A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de entrada a la cola para QA del auto i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN44" authorId="0" shapeId="0" xr:uid="{7E852A02-8D36-4727-8853-1FE5A23D81DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado de la alfombra i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO44" authorId="0" shapeId="0" xr:uid="{0DA00C6E-D5A7-4CF8-9181-A7AB31C6E841}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de entrada a la cola X de la alfombra i. Esta columna puede usarse tanto para la cola de PA como la de AA.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV44" authorId="0" shapeId="0" xr:uid="{90431D90-4F60-4E14-8E5A-75F62B69883C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estado del auto sin alfombra i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW44" authorId="0" shapeId="0" xr:uid="{90FFB616-BB95-4CAF-B62B-CFD41960CE76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de entrada a la cola LS del auto sin alfombra i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX44" authorId="0" shapeId="0" xr:uid="{6B3F464B-9B08-41F5-99EA-2AE278E31296}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tiempo en la cola LS del auto sin alfombra i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY44" authorId="0" shapeId="0" xr:uid="{62965A06-94BF-43A3-820C-BE09E16F652D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolás:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Hora de entrada a la cola PA del auto sin alfombra i</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1709,9 +1195,6 @@
     <t>Minutos</t>
   </si>
   <si>
-    <t>Sumamos 5 minutos + [(92*60) (minutos en cola entrada)* Cantidad de personas en colaEntrada]</t>
-  </si>
-  <si>
     <t>VECTOR ESTADO</t>
   </si>
   <si>
@@ -1842,13 +1325,37 @@
   </si>
   <si>
     <t>Servidor        ContorlComidaMayores(i)</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>PersonaMayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona </t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto </t>
+  </si>
+  <si>
+    <t>Reloj (segundos)</t>
+  </si>
+  <si>
+    <t>Hora Cola entrada</t>
+  </si>
+  <si>
+    <t>Sumamos 5 minutos + [(RND de cola entrada*60) (minutos en cola entrada)* Cantidad de personas en colaEntrada]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,8 +1407,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1992,8 +1507,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2030,13 +1563,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2120,98 +1708,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2221,6 +1845,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2536,72 +2166,72 @@
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>36</v>
       </c>
@@ -2638,59 +2268,59 @@
       <c r="AC2" s="45">
         <v>1</v>
       </c>
-      <c r="AD2" s="44"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="45">
         <v>2</v>
       </c>
-      <c r="AF2" s="44"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="45">
         <v>3</v>
       </c>
-      <c r="AH2" s="44"/>
+      <c r="AH2" s="46"/>
       <c r="AI2" s="45">
         <v>4</v>
       </c>
-      <c r="AJ2" s="44"/>
+      <c r="AJ2" s="46"/>
       <c r="AK2" s="45">
         <v>5</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="40">
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="43">
         <v>1</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="40">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="43">
         <v>2</v>
       </c>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="40">
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="43">
         <v>3</v>
       </c>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="40">
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="43">
         <v>4</v>
       </c>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="39">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="56">
         <v>1</v>
       </c>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="39">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="56">
         <v>2</v>
       </c>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39">
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="56">
         <v>3</v>
       </c>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-    </row>
-    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+    </row>
+    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2820,7 +2450,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2830,7 +2460,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2841,7 +2471,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2852,7 +2482,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2864,7 +2494,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2884,7 +2514,7 @@
       <c r="AB8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2900,7 +2530,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2913,7 +2543,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -2923,7 +2553,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2936,7 +2566,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2949,7 +2579,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -2961,7 +2591,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2972,7 +2602,7 @@
       <c r="AB15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2984,7 +2614,7 @@
       <c r="AP16" s="4"/>
       <c r="BB16" s="4"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="F17" s="5"/>
       <c r="I17" s="4"/>
@@ -2994,43 +2624,43 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="I18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="R21" s="41" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="R21" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
       <c r="X21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.67</v>
       </c>
@@ -3054,15 +2684,15 @@
       <c r="T22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="51" t="s">
+      <c r="U22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="51"/>
+      <c r="V22" s="42"/>
       <c r="Y22" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.23</v>
       </c>
@@ -3111,7 +2741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.89</v>
       </c>
@@ -3138,7 +2768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.45</v>
       </c>
@@ -3161,7 +2791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.02</v>
       </c>
@@ -3172,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.76</v>
       </c>
@@ -3180,135 +2810,135 @@
       <c r="R27" s="2"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.61</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.93</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.83</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.97</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="V1:W1"/>
@@ -3321,13 +2951,13 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3336,68 +2966,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
-  <dimension ref="A1:BG44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
+  <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42:Y44"/>
+    <sheetView tabSelected="1" topLeftCell="X36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI47" sqref="AI47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="121.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" customWidth="1"/>
+    <col min="3" max="3" width="121.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="23.453125" customWidth="1"/>
+    <col min="26" max="26" width="14.26953125" customWidth="1"/>
+    <col min="27" max="27" width="14.453125" customWidth="1"/>
+    <col min="28" max="28" width="29.54296875" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="E2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
@@ -3407,14 +3039,14 @@
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3424,12 +3056,12 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3439,12 +3071,12 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3454,12 +3086,12 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3469,12 +3101,12 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3484,12 +3116,12 @@
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3499,12 +3131,12 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3514,12 +3146,12 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3530,7 +3162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>54</v>
       </c>
@@ -3541,51 +3173,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>61</v>
       </c>
@@ -3596,7 +3228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3250,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3640,7 +3272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>67</v>
       </c>
@@ -3651,7 +3283,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -3662,7 +3294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3670,294 +3302,288 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="116" x14ac:dyDescent="0.35">
+      <c r="A36" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="78"/>
+      <c r="AF41" s="78"/>
+      <c r="AG41" s="78"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="79"/>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="G42" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="R42" s="61"/>
+      <c r="S42" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="T42" s="62"/>
+      <c r="U42" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" s="63"/>
+      <c r="W42" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="36" t="s">
+      <c r="X42" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y42" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="Z42" s="68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="N42" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="O42" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="R42" s="64"/>
-      <c r="S42" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="T42" s="65"/>
-      <c r="U42" s="66" t="s">
+      <c r="AA42" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB42" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC42" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD42" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK42" s="46"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A43" s="74"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="V42" s="66"/>
-      <c r="W42" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="X42" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y42" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44"/>
-      <c r="AN42" s="37"/>
-      <c r="AO42" s="37"/>
-      <c r="AP42" s="37"/>
-      <c r="AQ42" s="37"/>
-      <c r="AR42" s="37"/>
-      <c r="AS42" s="37"/>
-      <c r="AT42" s="37"/>
-      <c r="AU42" s="37"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BE42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="38"/>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B43" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="45">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="45">
-        <v>2</v>
-      </c>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="45">
-        <v>3</v>
-      </c>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="45">
-        <v>4</v>
-      </c>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="45">
-        <v>5</v>
-      </c>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="40">
-        <v>1</v>
-      </c>
-      <c r="AO43" s="37"/>
-      <c r="AP43" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ43" s="37"/>
-      <c r="AR43" s="40">
-        <v>3</v>
-      </c>
-      <c r="AS43" s="37"/>
-      <c r="AT43" s="40">
-        <v>4</v>
-      </c>
-      <c r="AU43" s="37"/>
-      <c r="AV43" s="39">
-        <v>1</v>
-      </c>
-      <c r="AW43" s="38"/>
-      <c r="AX43" s="38"/>
-      <c r="AY43" s="38"/>
-      <c r="AZ43" s="39">
-        <v>2</v>
-      </c>
-      <c r="BA43" s="38"/>
-      <c r="BB43" s="38"/>
-      <c r="BC43" s="38"/>
-      <c r="BD43" s="39">
-        <v>3</v>
-      </c>
-      <c r="BE43" s="38"/>
-      <c r="BF43" s="38"/>
-      <c r="BG43" s="38"/>
-    </row>
-    <row r="44" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
+      <c r="AE43" s="72"/>
+      <c r="AF43" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK43" s="46"/>
+    </row>
+    <row r="44" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="74"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
       <c r="O44" s="19" t="s">
         <v>24</v>
       </c>
@@ -3982,21 +3608,13 @@
       <c r="V44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC44" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
       <c r="AD44" s="14" t="s">
         <v>24</v>
       </c>
@@ -4004,7 +3622,9 @@
       <c r="AF44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AG44" s="13"/>
+      <c r="AG44" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="AH44" s="14" t="s">
         <v>24</v>
       </c>
@@ -4013,49 +3633,36 @@
         <v>24</v>
       </c>
       <c r="AK44" s="13"/>
-      <c r="AL44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM44" s="13"/>
-      <c r="AN44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ44" s="11"/>
-      <c r="AR44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS44" s="11"/>
-      <c r="AT44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU44" s="11"/>
-      <c r="AV44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW44" s="9"/>
-      <c r="AX44" s="9"/>
-      <c r="AY44" s="9"/>
-      <c r="AZ44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA44" s="9"/>
-      <c r="BB44" s="9"/>
-      <c r="BC44" s="9"/>
-      <c r="BD44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE44" s="9"/>
-      <c r="BF44" s="9"/>
-      <c r="BG44" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AZ43:BC43"/>
-    <mergeCell ref="BD43:BG43"/>
+  <mergeCells count="39">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="D6:G13"/>
+    <mergeCell ref="A41:AK41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="W42:W44"/>
+    <mergeCell ref="X42:X44"/>
+    <mergeCell ref="Y42:Y44"/>
+    <mergeCell ref="Z42:Z44"/>
+    <mergeCell ref="AA42:AA44"/>
+    <mergeCell ref="AB42:AB44"/>
+    <mergeCell ref="AC42:AC44"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AJ43:AK43"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="H42:H44"/>
@@ -4068,35 +3675,8 @@
     <mergeCell ref="O42:P43"/>
     <mergeCell ref="Q42:R43"/>
     <mergeCell ref="S42:T43"/>
-    <mergeCell ref="AN43:AO43"/>
-    <mergeCell ref="AP43:AQ43"/>
-    <mergeCell ref="AR43:AS43"/>
-    <mergeCell ref="AT43:AU43"/>
-    <mergeCell ref="AV43:AY43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AL43:AM43"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="AD42:AM42"/>
-    <mergeCell ref="AN42:AU42"/>
-    <mergeCell ref="AV42:BG42"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="W42:W44"/>
-    <mergeCell ref="X42:X44"/>
-    <mergeCell ref="Y42:Y44"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="D6:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E5900-24B1-49C8-BFC5-1C25C4978F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC49A7-4963-4E55-B775-9234F5C22B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP4" sheetId="1" r:id="rId1"/>
+    <sheet name="TP4" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="INFO A PRESENTAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1131,12 +1131,6 @@
   </si>
   <si>
     <t>Tiempo en conseguir entrada</t>
-  </si>
-  <si>
-    <t>Promedio de metros necesarios para aparcamiento</t>
-  </si>
-  <si>
-    <t>Unidad</t>
   </si>
   <si>
     <t>Tiempo de entrada despues de estacionar</t>
@@ -1189,27 +1183,9 @@
     </r>
   </si>
   <si>
-    <t>Contando la suma de los metros de cada auto dividido la cantidad total de autos.</t>
-  </si>
-  <si>
-    <t>Minutos</t>
-  </si>
-  <si>
     <t>VECTOR ESTADO</t>
   </si>
   <si>
-    <t>PromedioMetros</t>
-  </si>
-  <si>
-    <t>TiempoEntrada</t>
-  </si>
-  <si>
-    <t>TiempoEntradaDespEstacionar</t>
-  </si>
-  <si>
-    <t>Sumatoria de (Cantidad de personas en cola por el tiempo en que hay esa cantidad de personas en cola), dividido el reloj de la simulación</t>
-  </si>
-  <si>
     <t>Exponencial negativa</t>
   </si>
   <si>
@@ -1225,60 +1201,15 @@
     <t>Constante</t>
   </si>
   <si>
-    <t>CantidadPromedioGenteEnCola</t>
-  </si>
-  <si>
     <t>COMO LO CALCULA?</t>
   </si>
   <si>
-    <t>PORQUE LO CALCULA</t>
-  </si>
-  <si>
-    <t>En cada experimento de la simulación</t>
-  </si>
-  <si>
     <t>DÓNDE LO CALCULA ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Porque necesitamos buscar el dato de cuantas personas en promedio hay en cola, por lo tanto se toma este acumulador para poder calcularlo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se suma uno una vez que haya sucedido el evento de la llegada cliente </t>
-  </si>
-  <si>
-    <t>AcumuladorColaEntrada</t>
-  </si>
-  <si>
-    <t>Cantidad promedio de gente en ColaEntrada</t>
-  </si>
-  <si>
-    <t>AcumuladorTiempo</t>
-  </si>
-  <si>
-    <t>Se suma el tiempo anterior de espera en cola al tiempo actual de espera en cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porque necesitamos buscar el dato de cuanto tiempo hubo una cierta cantidad de personas en cola, por lo tanto se toma este acumulador para poder calcularlo </t>
-  </si>
-  <si>
-    <t>AcumuladorTiempo A CHEQUEAAAAAR</t>
-  </si>
-  <si>
     <t>ACUMULADORES Y CONTADORES</t>
   </si>
   <si>
-    <t>ContadorAutos</t>
-  </si>
-  <si>
-    <t>Por cada auto que llega se suma 1 al contador</t>
-  </si>
-  <si>
-    <t>Porque necesitamos buscar el promedio de metros necesarios para aparcamiento y para ello necesitamos la cantidad total de datos.</t>
-  </si>
-  <si>
-    <t>A CHEQUEAAR</t>
-  </si>
-  <si>
     <t>HoraFinCajaPark</t>
   </si>
   <si>
@@ -1324,9 +1255,6 @@
     <t>Servidor       ControlComida (i)</t>
   </si>
   <si>
-    <t>Servidor        ContorlComidaMayores(i)</t>
-  </si>
-  <si>
     <t>(i)</t>
   </si>
   <si>
@@ -1348,7 +1276,145 @@
     <t>Hora Cola entrada</t>
   </si>
   <si>
-    <t>Sumamos 5 minutos + [(RND de cola entrada*60) (minutos en cola entrada)* Cantidad de personas en colaEntrada]</t>
+    <t>300 + Tiempo promedio en colaEntrada + 92</t>
+  </si>
+  <si>
+    <t>Tiempo promedio en colaEntrada*</t>
+  </si>
+  <si>
+    <t>* Métrica auxiliar</t>
+  </si>
+  <si>
+    <t>(Sumatoria de tiempos en colaEntrada / Tiempo total de la simulación) * 4,16</t>
+  </si>
+  <si>
+    <t>4,16: Cantidad promedio de personas por grupo</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Tiempo en conseguir entrada + Tiempo promedio en colaComida + 5</t>
+  </si>
+  <si>
+    <t>5: Tiempo promedio de atención en ControlComida</t>
+  </si>
+  <si>
+    <t>300: 5 minutos, 92: Tiempo promedio de atención en CajaEntrada</t>
+  </si>
+  <si>
+    <t>Tiempo promedio en colaComida*</t>
+  </si>
+  <si>
+    <t>Cantidad promedio de autos en colaPark*</t>
+  </si>
+  <si>
+    <t>Cantidad promedio de autos en colaPark * 4. ALTERNATIVA: Cantidad máxima de autos en la colaPark * 4</t>
+  </si>
+  <si>
+    <t>(Sumatoria de tiempos en colaParking / Tiempo total de la simulación)</t>
+  </si>
+  <si>
+    <t>Metros promedio necesarios para aparcamiento</t>
+  </si>
+  <si>
+    <t>POR QUÉ LO CALCULA?</t>
+  </si>
+  <si>
+    <t>SumatoriaTiemposColaParking</t>
+  </si>
+  <si>
+    <t>CantidadMaximaAutosEnColaParking</t>
+  </si>
+  <si>
+    <t>SumatoriaTiemposColaEntrada</t>
+  </si>
+  <si>
+    <t>ContadorGruposQuePasaronPorCajaEntrada</t>
+  </si>
+  <si>
+    <t>Sumatoria de tiempos en colaEntrada / Cantidad de grupos que pasaron por las CajaEntrada</t>
+  </si>
+  <si>
+    <t>SumatoriaTiemposColaComida</t>
+  </si>
+  <si>
+    <t>ContadorGruposQuePasaronPorControlComida</t>
+  </si>
+  <si>
+    <t>Sumatoria de tiempos en colaComida / Cantidad de grupos que pasaron por los ControlComida</t>
+  </si>
+  <si>
+    <t>Se calcula con la función MAX(), tomando como parámetros la cantidad máxima anterior, y la cantidad de autos en colaParking actual. Devuelve el mayor valor entre estos dos parámetros.</t>
+  </si>
+  <si>
+    <t>En cada evento de la simulación</t>
+  </si>
+  <si>
+    <t>Se requiere para la solución alternativa de la estadística: Metros promedio necesarios para aparcamiento.</t>
+  </si>
+  <si>
+    <t>i = 1, 2,.., 20</t>
+  </si>
+  <si>
+    <t>Servidor        ControlComidaMayores</t>
+  </si>
+  <si>
+    <t>Se calcula sumando todos los tiempos de colaParking de los autos en el momento actual, más la suma anterior.</t>
+  </si>
+  <si>
+    <t>Se requiere para la estadística: Cantidad promedio de autos en colaPark.</t>
+  </si>
+  <si>
+    <t>Se calcula sumando todos los tiempos de colaEntrada de los grupos en el momento actual, más la suma anterior.</t>
+  </si>
+  <si>
+    <t>Se calcula sumando 1 por cada grupo que ejecuta el evento FinCajaEntrada.</t>
+  </si>
+  <si>
+    <t>Se requiere para la estadística: Tiempo promedio en colaEntrada.</t>
+  </si>
+  <si>
+    <t>Se calcula sumando todos los tiempos de colaComida de las personas en el momento actual, más la suma anterior.</t>
+  </si>
+  <si>
+    <t>Se requiere para la estadística: Tiempo promedio en colaComida.</t>
+  </si>
+  <si>
+    <t>Se requiere para la estadística: Tiempo promedio en colaEntrada y Cantidad promedio de gente en colaEntrada.</t>
+  </si>
+  <si>
+    <t>Cantidad promedio de gente en colaEntrada</t>
+  </si>
+  <si>
+    <t>Se calcula sumando 1 por cada persona que ejecuta el evento FinControlComida.</t>
+  </si>
+  <si>
+    <t>CantidadMaxima AutosEnColaParking</t>
+  </si>
+  <si>
+    <t>SumatoriaTiempos ColaParking</t>
+  </si>
+  <si>
+    <t>SumatoriaTiempos ColaEntrada</t>
+  </si>
+  <si>
+    <t>ContadorGruposQue PasaronPorCajaEntrada</t>
+  </si>
+  <si>
+    <t>SumatoriaTiempos ColaComida</t>
+  </si>
+  <si>
+    <t>ContadorGruposQue PasaronPorControlComida</t>
+  </si>
+  <si>
+    <t>Llegada</t>
+  </si>
+  <si>
+    <t>Estadísticas</t>
+  </si>
+  <si>
+    <t>Objetos temporales</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,12 +1546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,7 +1684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1709,64 +1769,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1774,9 +1867,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1786,57 +1876,49 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2162,76 +2244,76 @@
   <dimension ref="A1:BF51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
         <v>36</v>
       </c>
@@ -2265,62 +2347,62 @@
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
-      <c r="AC2" s="45">
+      <c r="AC2" s="46">
         <v>1</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="45">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="46">
         <v>2</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="45">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46">
         <v>3</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="45">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46">
         <v>4</v>
       </c>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="45">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="46">
         <v>5</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="43">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="41">
         <v>1</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="43">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="41">
         <v>2</v>
       </c>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="43">
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="41">
         <v>3</v>
       </c>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="43">
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="41">
         <v>4</v>
       </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="56">
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="40">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="56">
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="40">
         <v>2</v>
       </c>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="56">
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="40">
         <v>3</v>
       </c>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-    </row>
-    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+    </row>
+    <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2532,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2460,7 +2542,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2471,7 +2553,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2482,7 +2564,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2494,7 +2576,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2514,7 +2596,7 @@
       <c r="AB8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2530,7 +2612,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2543,7 +2625,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -2553,7 +2635,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -2566,7 +2648,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2579,7 +2661,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -2591,7 +2673,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2602,7 +2684,7 @@
       <c r="AB15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2614,7 +2696,7 @@
       <c r="AP16" s="4"/>
       <c r="BB16" s="4"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="F17" s="5"/>
       <c r="I17" s="4"/>
@@ -2624,43 +2706,43 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="I18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="21" spans="1:38" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="R21" s="47" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="R21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
       <c r="X21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.67</v>
       </c>
@@ -2684,15 +2766,15 @@
       <c r="T22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="42" t="s">
+      <c r="U22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="42"/>
+      <c r="V22" s="52"/>
       <c r="Y22" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.23</v>
       </c>
@@ -2741,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.89</v>
       </c>
@@ -2768,7 +2850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.45</v>
       </c>
@@ -2791,7 +2873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.02</v>
       </c>
@@ -2802,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.76</v>
       </c>
@@ -2810,135 +2892,135 @@
       <c r="R27" s="2"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.61</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.93</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.83</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.97</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="V1:W1"/>
@@ -2951,13 +3033,13 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2967,69 +3049,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI47" sqref="AI47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="41.7265625" customWidth="1"/>
-    <col min="3" max="3" width="121.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" customWidth="1"/>
-    <col min="23" max="23" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="121.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="25" width="23.453125" customWidth="1"/>
-    <col min="26" max="26" width="14.26953125" customWidth="1"/>
-    <col min="27" max="27" width="14.453125" customWidth="1"/>
-    <col min="28" max="28" width="29.54296875" customWidth="1"/>
-    <col min="29" max="29" width="21.81640625" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" customWidth="1"/>
+    <col min="28" max="28" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="E2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
@@ -3039,14 +3120,14 @@
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3056,12 +3137,12 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3071,12 +3152,12 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3086,12 +3167,12 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3101,12 +3182,12 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3116,12 +3197,12 @@
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3131,12 +3212,12 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3146,12 +3227,12 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3162,7 +3243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>54</v>
       </c>
@@ -3173,51 +3254,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17">
+        <v>84</v>
+      </c>
+      <c r="C17" s="34">
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D18" s="87"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>61</v>
       </c>
@@ -3228,7 +3310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3239,7 +3321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3272,7 +3354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>67</v>
       </c>
@@ -3282,399 +3364,551 @@
       <c r="C28" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="D38" s="73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="74"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="58"/>
+    </row>
+    <row r="47" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="77"/>
+      <c r="S47" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="78"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="86"/>
+      <c r="AF47" s="86"/>
+      <c r="AG47" s="86"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="86"/>
+      <c r="AJ47" s="86"/>
+    </row>
+    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="N48" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="O48" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="R48" s="71"/>
+      <c r="S48" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="T48" s="72"/>
+      <c r="U48" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="V48" s="63"/>
+      <c r="W48" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y48" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z48" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA48" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB48" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC48" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD48" s="64"/>
+      <c r="AE48" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="116" x14ac:dyDescent="0.35">
-      <c r="A36" s="39" t="s">
+      <c r="AF48" s="64"/>
+      <c r="AG48" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ48" s="45"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="80"/>
+      <c r="AC49" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" ht="87" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="36" t="s">
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ49" s="45"/>
+    </row>
+    <row r="50" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF50" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
-      <c r="V41" s="78"/>
-      <c r="W41" s="78"/>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="78"/>
-      <c r="AA41" s="78"/>
-      <c r="AB41" s="78"/>
-      <c r="AC41" s="78"/>
-      <c r="AD41" s="78"/>
-      <c r="AE41" s="78"/>
-      <c r="AF41" s="78"/>
-      <c r="AG41" s="78"/>
-      <c r="AH41" s="78"/>
-      <c r="AI41" s="78"/>
-      <c r="AJ41" s="78"/>
-      <c r="AK41" s="79"/>
-    </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="J42" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="K42" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="L42" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="M42" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="O42" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="R42" s="61"/>
-      <c r="S42" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="T42" s="62"/>
-      <c r="U42" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="V42" s="63"/>
-      <c r="W42" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="X42" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y42" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z42" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA42" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB42" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC42" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD42" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK42" s="46"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE43" s="72"/>
-      <c r="AF43" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI43" s="46"/>
-      <c r="AJ43" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK43" s="46"/>
-    </row>
-    <row r="44" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="74"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="19" t="s">
+      <c r="AG50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="18" t="s">
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="T44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="V44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="69"/>
-      <c r="AC44" s="69"/>
-      <c r="AD44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK44" s="13"/>
+      <c r="AJ50" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="48">
+    <mergeCell ref="W47:AB47"/>
+    <mergeCell ref="AC47:AJ47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="Q48:R49"/>
+    <mergeCell ref="S48:T49"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="O48:P49"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AA48:AA50"/>
+    <mergeCell ref="AB48:AB50"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
     <mergeCell ref="A2:C4"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G4"/>
     <mergeCell ref="D6:G13"/>
-    <mergeCell ref="A41:AK41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="W42:W44"/>
-    <mergeCell ref="X42:X44"/>
-    <mergeCell ref="Y42:Y44"/>
-    <mergeCell ref="Z42:Z44"/>
-    <mergeCell ref="AA42:AA44"/>
-    <mergeCell ref="AB42:AB44"/>
-    <mergeCell ref="AC42:AC44"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="Q42:R43"/>
-    <mergeCell ref="S42:T43"/>
+    <mergeCell ref="A46:AJ46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="U48:V49"/>
+    <mergeCell ref="W48:W50"/>
+    <mergeCell ref="X48:X50"/>
+    <mergeCell ref="Y48:Y50"/>
+    <mergeCell ref="Z48:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planteo y simulación manual.xlsx
+++ b/Planteo y simulación manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\TP4-Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Documents\GitHub\TP4-Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC49A7-4963-4E55-B775-9234F5C22B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA9843-AB04-43F0-B709-5CADE3230B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{12BCEDD2-8242-4AFC-A31D-5713CDD2C3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TP4" sheetId="1" state="hidden" r:id="rId1"/>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Fin ControlComida i</t>
   </si>
@@ -1309,9 +1309,6 @@
     <t>Cantidad promedio de autos en colaPark*</t>
   </si>
   <si>
-    <t>Cantidad promedio de autos en colaPark * 4. ALTERNATIVA: Cantidad máxima de autos en la colaPark * 4</t>
-  </si>
-  <si>
     <t>(Sumatoria de tiempos en colaParking / Tiempo total de la simulación)</t>
   </si>
   <si>
@@ -1324,9 +1321,6 @@
     <t>SumatoriaTiemposColaParking</t>
   </si>
   <si>
-    <t>CantidadMaximaAutosEnColaParking</t>
-  </si>
-  <si>
     <t>SumatoriaTiemposColaEntrada</t>
   </si>
   <si>
@@ -1339,21 +1333,12 @@
     <t>SumatoriaTiemposColaComida</t>
   </si>
   <si>
-    <t>ContadorGruposQuePasaronPorControlComida</t>
-  </si>
-  <si>
     <t>Sumatoria de tiempos en colaComida / Cantidad de grupos que pasaron por los ControlComida</t>
   </si>
   <si>
-    <t>Se calcula con la función MAX(), tomando como parámetros la cantidad máxima anterior, y la cantidad de autos en colaParking actual. Devuelve el mayor valor entre estos dos parámetros.</t>
-  </si>
-  <si>
     <t>En cada evento de la simulación</t>
   </si>
   <si>
-    <t>Se requiere para la solución alternativa de la estadística: Metros promedio necesarios para aparcamiento.</t>
-  </si>
-  <si>
     <t>i = 1, 2,.., 20</t>
   </si>
   <si>
@@ -1415,6 +1400,12 @@
   </si>
   <si>
     <t>Objetos temporales</t>
+  </si>
+  <si>
+    <t>ContadorPersonasQuePasaronPorControlComida</t>
+  </si>
+  <si>
+    <t>Cantidad promedio de autos en colaPark * 4.</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1675,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1771,50 +1762,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1849,76 +1909,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2256,32 +2246,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="45"/>
       <c r="AE1" s="45"/>
@@ -2292,26 +2282,26 @@
       <c r="AJ1" s="45"/>
       <c r="AK1" s="45"/>
       <c r="AL1" s="45"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
@@ -2347,60 +2337,60 @@
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
-      <c r="AC2" s="46">
+      <c r="AC2" s="44">
         <v>1</v>
       </c>
       <c r="AD2" s="45"/>
-      <c r="AE2" s="46">
+      <c r="AE2" s="44">
         <v>2</v>
       </c>
       <c r="AF2" s="45"/>
-      <c r="AG2" s="46">
+      <c r="AG2" s="44">
         <v>3</v>
       </c>
       <c r="AH2" s="45"/>
-      <c r="AI2" s="46">
+      <c r="AI2" s="44">
         <v>4</v>
       </c>
       <c r="AJ2" s="45"/>
-      <c r="AK2" s="46">
+      <c r="AK2" s="44">
         <v>5</v>
       </c>
       <c r="AL2" s="45"/>
-      <c r="AM2" s="41">
+      <c r="AM2" s="42">
         <v>1</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="41">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="42">
         <v>2</v>
       </c>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="41">
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="42">
         <v>3</v>
       </c>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="41">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="42">
         <v>4</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="40">
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="55">
         <v>1</v>
       </c>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40">
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="55">
         <v>2</v>
       </c>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="40">
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="55">
         <v>3</v>
       </c>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
     </row>
     <row r="3" spans="1:58" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2715,29 +2705,29 @@
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="R21" s="42" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="R21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
       <c r="X21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2766,10 +2756,10 @@
       <c r="T22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="52"/>
+      <c r="V22" s="41"/>
       <c r="Y22" s="35" t="s">
         <v>40</v>
       </c>
@@ -3014,13 +3004,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="V1:W1"/>
@@ -3033,13 +3023,13 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3049,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6241246C-E157-40C2-A22D-12210E17A066}">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,44 +3061,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="E2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
@@ -3120,12 +3110,12 @@
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3137,10 +3127,10 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3152,10 +3142,10 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3167,10 +3157,10 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3182,10 +3172,10 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3197,10 +3187,10 @@
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3212,10 +3202,10 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3227,10 +3217,10 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3275,7 +3265,6 @@
       <c r="C18" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3370,13 +3359,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,7 +3376,7 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,12 +3401,12 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
         <v>115</v>
@@ -3451,7 +3440,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
@@ -3465,21 +3454,21 @@
         <v>86</v>
       </c>
       <c r="D37" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>134</v>
-      </c>
-      <c r="D38" s="73" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="45" x14ac:dyDescent="0.25">
@@ -3487,428 +3476,414 @@
         <v>125</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>128</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="C42" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="D42" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="39"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="81"/>
+    </row>
+    <row r="46" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="74"/>
-    </row>
-    <row r="45" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="66"/>
+      <c r="S46" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="67"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="AD46" s="57"/>
       <c r="AE46" s="57"/>
       <c r="AF46" s="57"/>
       <c r="AG46" s="57"/>
       <c r="AH46" s="57"/>
       <c r="AI46" s="57"/>
-      <c r="AJ46" s="58"/>
-    </row>
-    <row r="47" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="R47" s="77"/>
-      <c r="S47" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="78"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="X47" s="85"/>
-      <c r="Y47" s="85"/>
-      <c r="Z47" s="85"/>
-      <c r="AA47" s="85"/>
-      <c r="AB47" s="85"/>
-      <c r="AC47" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD47" s="86"/>
-      <c r="AE47" s="86"/>
-      <c r="AF47" s="86"/>
-      <c r="AG47" s="86"/>
-      <c r="AH47" s="86"/>
-      <c r="AI47" s="86"/>
-      <c r="AJ47" s="86"/>
-    </row>
-    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="AJ46" s="57"/>
+    </row>
+    <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B47" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C47" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D47" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E47" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F47" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="67" t="s">
+      <c r="G47" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="H47" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="68" t="s">
+      <c r="I47" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="J48" s="68" t="s">
+      <c r="J47" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="K48" s="68" t="s">
+      <c r="K47" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="L47" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="M48" s="69" t="s">
+      <c r="M47" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N48" s="69" t="s">
+      <c r="N47" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="O48" s="70" t="s">
+      <c r="O47" s="70" t="s">
         <v>100</v>
       </c>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="R47" s="63"/>
+      <c r="S47" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" s="64"/>
+      <c r="U47" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="V47" s="86"/>
+      <c r="W47" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="X47" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y47" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z47" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA47" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB47" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC47" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ47" s="45"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="83"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="70"/>
       <c r="P48" s="70"/>
-      <c r="Q48" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="R48" s="71"/>
-      <c r="S48" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="T48" s="72"/>
-      <c r="U48" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="V48" s="63"/>
-      <c r="W48" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="X48" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y48" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z48" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA48" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB48" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC48" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF48" s="64"/>
-      <c r="AG48" s="45" t="s">
-        <v>105</v>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="AH48" s="45"/>
-      <c r="AI48" s="45" t="s">
-        <v>104</v>
+      <c r="AI48" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="AJ48" s="45"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
+    <row r="49" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="83"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="68"/>
       <c r="J49" s="68"/>
       <c r="K49" s="68"/>
       <c r="L49" s="69"/>
       <c r="M49" s="69"/>
       <c r="N49" s="69"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ49" s="45"/>
-    </row>
-    <row r="50" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="19" t="s">
+      <c r="O49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="19" t="s">
+      <c r="P49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="18" t="s">
+      <c r="Q49" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="18" t="s">
+      <c r="R49" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="S49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="T49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="U50" s="16" t="s">
+      <c r="U49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="V49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="14" t="s">
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="14" t="s">
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AF50" s="13" t="s">
+      <c r="AF49" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AG50" s="14" t="s">
+      <c r="AG49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="14" t="s">
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AJ50" s="13"/>
+      <c r="AJ49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="W47:AB47"/>
-    <mergeCell ref="AC47:AJ47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="S48:T49"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="O48:P49"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AA48:AA50"/>
-    <mergeCell ref="AB48:AB50"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G4"/>
     <mergeCell ref="D6:G13"/>
-    <mergeCell ref="A46:AJ46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="U48:V49"/>
-    <mergeCell ref="W48:W50"/>
-    <mergeCell ref="X48:X50"/>
-    <mergeCell ref="Y48:Y50"/>
-    <mergeCell ref="Z48:Z50"/>
+    <mergeCell ref="A45:AJ45"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AB47:AB49"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="U47:V48"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:T48"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="W46:AB46"/>
+    <mergeCell ref="AC46:AJ46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
